--- a/biology/Biochimie/Réaction_xanthoprotéique/Réaction_xanthoprotéique.xlsx
+++ b/biology/Biochimie/Réaction_xanthoprotéique/Réaction_xanthoprotéique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9action_xanthoprot%C3%A9ique</t>
+          <t>Réaction_xanthoprotéique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une réaction xanthoprotéique est une réaction chimique permettant de mettre en évidence certains acides aminés.
 La couleur jaune provient du noyau aromatique du Nitrite
 De l'acide nitrique est chauffé en présence de la solution à analyser. Elle donne un précipité blanc en présence de protéine qui devient rapidement jaune en se transformant en acide xanthoprotéique (nitratation des noyaux aromatiques).
-Après refroidissement, l'ajout au goutte à goutte d'une base comme l'ammoniaque ou la soude concentrée donne une coloration orange au précipité si celui-ci contient des acides aminés aromatiques (phénylalanine, tyrosine)[1].</t>
+Après refroidissement, l'ajout au goutte à goutte d'une base comme l'ammoniaque ou la soude concentrée donne une coloration orange au précipité si celui-ci contient des acides aminés aromatiques (phénylalanine, tyrosine).</t>
         </is>
       </c>
     </row>
